--- a/Maps/KeyBinds.xlsx
+++ b/Maps/KeyBinds.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="301">
   <si>
     <t>R-CTRL</t>
   </si>
@@ -925,6 +925,9 @@
   </si>
   <si>
     <t>Standard Unmodified Keys - v5.0.2</t>
+  </si>
+  <si>
+    <t>Clear Auth</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1377,6 +1380,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2963,7 +2969,7 @@
   <dimension ref="B1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3182,10 +3188,12 @@
       <c r="E8" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="22" t="s">
+        <v>300</v>
+      </c>
       <c r="H8" s="4" t="s">
         <v>87</v>
       </c>

--- a/Maps/KeyBinds.xlsx
+++ b/Maps/KeyBinds.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Den\OneDrive\Personal\Thrustmaster\TARGET\Clicker\Development\ED_TargetScript-502\Maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D0234B-2180-4E43-AE5C-3407860BF032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="1980" activeTab="1"/>
+    <workbookView xWindow="6765" yWindow="960" windowWidth="28305" windowHeight="18765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="In Ship" sheetId="1" r:id="rId1"/>
@@ -669,9 +670,6 @@
     <t>RollRight/CamTxlateBWD</t>
   </si>
   <si>
-    <t>Standard Unmodified Keys - v5.0.0</t>
-  </si>
-  <si>
     <t>Interact</t>
   </si>
   <si>
@@ -928,12 +926,15 @@
   </si>
   <si>
     <t>Clear Auth</t>
+  </si>
+  <si>
+    <t>Standard Unmodified Keys - v5.02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1231,7 +1232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1254,9 +1255,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1266,19 +1264,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1303,15 +1294,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1327,9 +1309,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1342,19 +1321,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1380,9 +1356,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1664,13 +1637,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:O49"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1692,44 +1667,44 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
+      <c r="B2" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="17" t="s">
         <v>168</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="17" t="s">
         <v>171</v>
       </c>
       <c r="F3" s="2">
         <v>6</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="17" t="s">
         <v>163</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -1738,7 +1713,7 @@
       <c r="K3" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="13" t="s">
         <v>110</v>
       </c>
       <c r="M3" s="3"/>
@@ -1747,13 +1722,13 @@
       <c r="B4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="18" t="s">
         <v>209</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="18" t="s">
         <v>119</v>
       </c>
       <c r="F4" s="4">
@@ -1763,17 +1738,17 @@
       <c r="H4" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="18" t="s">
         <v>128</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>95</v>
       </c>
       <c r="K4" s="5"/>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="17" t="s">
         <v>208</v>
       </c>
     </row>
@@ -1781,37 +1756,37 @@
       <c r="B5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="18" t="s">
         <v>210</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="22" t="s">
+      <c r="E5" s="18" t="s">
         <v>144</v>
       </c>
       <c r="F5" s="4">
         <v>8</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="18" t="s">
         <v>158</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="18" t="s">
         <v>176</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="18" t="s">
         <v>187</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="18" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1819,37 +1794,37 @@
       <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="18" t="s">
         <v>190</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="18" t="s">
         <v>122</v>
       </c>
       <c r="F6" s="4">
         <v>9</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="18" t="s">
         <v>159</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="18" t="s">
         <v>177</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="K6" s="22" t="s">
+      <c r="K6" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="18" t="s">
         <v>142</v>
       </c>
     </row>
@@ -1857,37 +1832,37 @@
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="18" t="s">
         <v>170</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="E7" s="18" t="s">
         <v>123</v>
       </c>
       <c r="F7" s="4">
         <v>0</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="18" t="s">
         <v>160</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="18" t="s">
         <v>178</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="L7" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="18" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1895,37 +1870,37 @@
       <c r="B8" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="18" t="s">
         <v>145</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="18" t="s">
         <v>133</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="18" t="s">
         <v>179</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="18" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1933,47 +1908,47 @@
       <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="18" t="s">
         <v>148</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="18" t="s">
         <v>165</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="18" t="s">
         <v>180</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="L9" s="18"/>
+      <c r="L9" s="14"/>
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="18" t="s">
         <v>149</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="18" t="s">
         <v>117</v>
       </c>
       <c r="F10" s="4" t="s">
@@ -1983,19 +1958,19 @@
       <c r="H10" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="18" t="s">
         <v>181</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="M10" s="18" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2003,13 +1978,13 @@
       <c r="B11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="18" t="s">
         <v>153</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="18" t="s">
         <v>147</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -2019,19 +1994,19 @@
       <c r="H11" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="18" t="s">
         <v>182</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="K11" s="22" t="s">
+      <c r="K11" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="M11" s="18" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2039,35 +2014,35 @@
       <c r="B12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="18" t="s">
         <v>155</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="18" t="s">
         <v>121</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="18" t="s">
         <v>197</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="18" t="s">
         <v>183</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>103</v>
       </c>
       <c r="K12" s="5"/>
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="M12" s="18" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2075,37 +2050,37 @@
       <c r="B13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="18" t="s">
         <v>191</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="18" t="s">
         <v>198</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="18" t="s">
         <v>184</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="L13" s="18" t="s">
+      <c r="L13" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M13" s="18" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2113,19 +2088,19 @@
       <c r="B14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="18" t="s">
         <v>186</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="18" t="s">
         <v>125</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="22" t="s">
+      <c r="G14" s="18" t="s">
         <v>134</v>
       </c>
       <c r="H14" s="4" t="s">
@@ -2135,29 +2110,29 @@
       <c r="J14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="K14" s="31" t="s">
+      <c r="K14" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="L14" s="18"/>
+      <c r="L14" s="14"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="18" t="s">
         <v>157</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="18" t="s">
         <v>124</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="18" t="s">
         <v>199</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -2167,13 +2142,13 @@
       <c r="J15" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="L15" s="18" t="s">
+      <c r="L15" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="18" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2181,87 +2156,87 @@
       <c r="B16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="18" t="s">
         <v>150</v>
       </c>
       <c r="D16" s="4">
         <v>3</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="18" t="s">
         <v>126</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="18" t="s">
         <v>131</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="24" t="s">
         <v>116</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="K16" s="22" t="s">
+      <c r="K16" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="L16" s="18"/>
+      <c r="L16" s="14"/>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="18" t="s">
         <v>130</v>
       </c>
       <c r="D17" s="4">
         <v>4</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="18" t="s">
         <v>127</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="18" t="s">
         <v>151</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="18" t="s">
         <v>185</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="22" t="s">
+      <c r="K17" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="L17" s="18"/>
+      <c r="L17" s="14"/>
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="19" t="s">
         <v>189</v>
       </c>
       <c r="D18" s="6">
         <v>5</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="19" t="s">
         <v>161</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="19" t="s">
         <v>152</v>
       </c>
       <c r="H18" s="6" t="s">
@@ -2271,40 +2246,40 @@
       <c r="J18" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K18" s="23" t="s">
+      <c r="K18" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="L18" s="19"/>
+      <c r="L18" s="15"/>
       <c r="M18" s="7"/>
     </row>
     <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="48" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="48" t="s">
+      <c r="E20" s="40"/>
+      <c r="F20" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="49"/>
-      <c r="H20" s="48" t="s">
+      <c r="G20" s="40"/>
+      <c r="H20" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I20" s="49"/>
-      <c r="J20" s="48" t="s">
+      <c r="I20" s="40"/>
+      <c r="J20" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="49"/>
-      <c r="L20" s="48" t="s">
+      <c r="K20" s="40"/>
+      <c r="L20" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="M20" s="49"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
+      <c r="M20" s="40"/>
+      <c r="N20"/>
+      <c r="O20"/>
     </row>
     <row r="21" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
@@ -2312,13 +2287,13 @@
       <c r="D21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="17" t="s">
         <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="17" t="s">
         <v>21</v>
       </c>
       <c r="H21" s="2"/>
@@ -2327,26 +2302,24 @@
       <c r="K21" s="3"/>
       <c r="L21" s="2"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="18" t="s">
         <v>193</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="18" t="s">
         <v>211</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="18" t="s">
         <v>200</v>
       </c>
       <c r="H22" s="4"/>
@@ -2355,26 +2328,24 @@
       <c r="K22" s="5"/>
       <c r="L22" s="4"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="18" t="s">
         <v>194</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="18" t="s">
         <v>46</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="18" t="s">
         <v>201</v>
       </c>
       <c r="H23" s="4"/>
@@ -2383,21 +2354,19 @@
       <c r="K23" s="5"/>
       <c r="L23" s="4"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="D24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="18" t="s">
         <v>47</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="18" t="s">
         <v>202</v>
       </c>
       <c r="H24" s="4"/>
@@ -2406,8 +2375,6 @@
       <c r="K24" s="5"/>
       <c r="L24" s="4"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
@@ -2415,13 +2382,13 @@
       <c r="D25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="18" t="s">
         <v>48</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="18" t="s">
         <v>203</v>
       </c>
       <c r="H25" s="4"/>
@@ -2430,8 +2397,6 @@
       <c r="K25" s="5"/>
       <c r="L25" s="4"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
@@ -2439,13 +2404,13 @@
       <c r="D26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="18" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="18" t="s">
         <v>212</v>
       </c>
       <c r="H26" s="4"/>
@@ -2454,8 +2419,6 @@
       <c r="K26" s="5"/>
       <c r="L26" s="4"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
@@ -2463,13 +2426,13 @@
       <c r="D27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="18" t="s">
         <v>51</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="18" t="s">
         <v>213</v>
       </c>
       <c r="H27" s="4"/>
@@ -2478,21 +2441,19 @@
       <c r="K27" s="5"/>
       <c r="L27" s="4"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="D28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="18" t="s">
         <v>52</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="18" t="s">
         <v>26</v>
       </c>
       <c r="H28" s="4"/>
@@ -2501,8 +2462,6 @@
       <c r="K28" s="5"/>
       <c r="L28" s="4"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
@@ -2510,13 +2469,13 @@
       <c r="D29" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="18" t="s">
         <v>63</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="18" t="s">
         <v>28</v>
       </c>
       <c r="H29" s="4"/>
@@ -2525,8 +2484,6 @@
       <c r="K29" s="5"/>
       <c r="L29" s="4"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
@@ -2534,13 +2491,13 @@
       <c r="D30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="18" t="s">
         <v>19</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="18" t="s">
         <v>30</v>
       </c>
       <c r="H30" s="4"/>
@@ -2549,8 +2506,6 @@
       <c r="K30" s="5"/>
       <c r="L30" s="4"/>
       <c r="M30" s="5"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
@@ -2558,13 +2513,13 @@
       <c r="D31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="18" t="s">
         <v>53</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="18" t="s">
         <v>32</v>
       </c>
       <c r="H31" s="4"/>
@@ -2573,8 +2528,6 @@
       <c r="K31" s="5"/>
       <c r="L31" s="4"/>
       <c r="M31" s="5"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
@@ -2582,27 +2535,25 @@
       <c r="D32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="8"/>
       <c r="G32" s="5"/>
-      <c r="H32" s="9"/>
+      <c r="H32" s="8"/>
       <c r="I32" s="5"/>
       <c r="J32" s="4"/>
       <c r="K32" s="5"/>
       <c r="L32" s="4"/>
       <c r="M32" s="5"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="18" t="s">
         <v>192</v>
       </c>
       <c r="F33" s="4"/>
@@ -2613,10 +2564,8 @@
       <c r="K33" s="5"/>
       <c r="L33" s="4"/>
       <c r="M33" s="5"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
       <c r="D34" s="4"/>
@@ -2624,7 +2573,7 @@
       <c r="F34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G34" s="21" t="s">
+      <c r="G34" s="17" t="s">
         <v>35</v>
       </c>
       <c r="H34" s="2"/>
@@ -2633,18 +2582,16 @@
       <c r="K34" s="5"/>
       <c r="L34" s="4"/>
       <c r="M34" s="5"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="5"/>
       <c r="F35" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G35" s="18" t="s">
         <v>43</v>
       </c>
       <c r="H35" s="4"/>
@@ -2653,18 +2600,16 @@
       <c r="K35" s="5"/>
       <c r="L35" s="4"/>
       <c r="M35" s="5"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-    </row>
-    <row r="36" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11"/>
       <c r="F36" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="18" t="s">
         <v>41</v>
       </c>
       <c r="H36" s="4"/>
@@ -2673,20 +2618,18 @@
       <c r="K36" s="5"/>
       <c r="L36" s="4"/>
       <c r="M36" s="5"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-    </row>
-    <row r="37" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="43" t="s">
+      <c r="D37" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="E37" s="44"/>
+      <c r="E37" s="35"/>
       <c r="F37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="21" t="s">
+      <c r="G37" s="17" t="s">
         <v>37</v>
       </c>
       <c r="H37" s="2"/>
@@ -2695,22 +2638,20 @@
       <c r="K37" s="5"/>
       <c r="L37" s="4"/>
       <c r="M37" s="5"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
       <c r="D38" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="18" t="s">
         <v>59</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="18" t="s">
         <v>39</v>
       </c>
       <c r="H38" s="4"/>
@@ -2719,22 +2660,20 @@
       <c r="K38" s="5"/>
       <c r="L38" s="4"/>
       <c r="M38" s="5"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E39" s="32" t="s">
-        <v>261</v>
+      <c r="E39" s="25" t="s">
+        <v>260</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="18" t="s">
         <v>15</v>
       </c>
       <c r="H39" s="4"/>
@@ -2743,10 +2682,8 @@
       <c r="K39" s="5"/>
       <c r="L39" s="4"/>
       <c r="M39" s="5"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
       <c r="D40" s="4"/>
@@ -2754,7 +2691,7 @@
       <c r="F40" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="22" t="s">
+      <c r="G40" s="18" t="s">
         <v>16</v>
       </c>
       <c r="H40" s="4"/>
@@ -2763,22 +2700,20 @@
       <c r="K40" s="5"/>
       <c r="L40" s="4"/>
       <c r="M40" s="5"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
       <c r="D41" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="28" t="s">
+      <c r="E41" s="21" t="s">
         <v>195</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="22" t="s">
+      <c r="G41" s="18" t="s">
         <v>17</v>
       </c>
       <c r="H41" s="4"/>
@@ -2787,22 +2722,20 @@
       <c r="K41" s="5"/>
       <c r="L41" s="4"/>
       <c r="M41" s="5"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
       <c r="D42" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="E42" s="24" t="s">
         <v>196</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G42" s="22" t="s">
+      <c r="G42" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H42" s="4"/>
@@ -2811,10 +2744,8 @@
       <c r="K42" s="5"/>
       <c r="L42" s="4"/>
       <c r="M42" s="5"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
       <c r="D43" s="4"/>
@@ -2822,7 +2753,7 @@
       <c r="F43" s="4">
         <v>1</v>
       </c>
-      <c r="G43" s="22" t="s">
+      <c r="G43" s="18" t="s">
         <v>206</v>
       </c>
       <c r="H43" s="4"/>
@@ -2831,18 +2762,16 @@
       <c r="K43" s="5"/>
       <c r="L43" s="4"/>
       <c r="M43" s="5"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="8"/>
+      <c r="E44" s="5"/>
       <c r="F44" s="4">
         <v>2</v>
       </c>
-      <c r="G44" s="29" t="s">
+      <c r="G44" s="22" t="s">
         <v>207</v>
       </c>
       <c r="H44" s="4"/>
@@ -2850,91 +2779,81 @@
       <c r="K44" s="5"/>
       <c r="L44" s="4"/>
       <c r="M44" s="5"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
-      <c r="C45" s="8"/>
+      <c r="C45" s="5"/>
       <c r="D45" s="4"/>
       <c r="E45" s="5"/>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G45" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H45" s="9"/>
-      <c r="I45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="5"/>
       <c r="J45" s="4"/>
       <c r="K45" s="5"/>
       <c r="L45" s="4"/>
       <c r="M45" s="5"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="11"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="14" t="s">
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="10"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G46" s="30" t="s">
+      <c r="G46" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H46" s="14"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="11"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="14" t="s">
+      <c r="H46" s="12"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="11"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="10"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G47" s="30" t="s">
+      <c r="G47" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="H47" s="14"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="15"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="11"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-    </row>
-    <row r="49" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H47" s="12"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="11"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48" s="10"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="11"/>
+    </row>
+    <row r="49" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="6"/>
       <c r="C49" s="7"/>
       <c r="D49" s="6"/>
       <c r="E49" s="7"/>
-      <c r="F49" s="10"/>
+      <c r="F49" s="9"/>
       <c r="G49" s="7"/>
       <c r="H49" s="6"/>
       <c r="I49" s="7"/>
@@ -2942,8 +2861,6 @@
       <c r="K49" s="7"/>
       <c r="L49" s="6"/>
       <c r="M49" s="7"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2962,13 +2879,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -2990,109 +2907,109 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
+      <c r="B2" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="F3" s="27">
+        <v>6</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="F3" s="35">
-        <v>6</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="J3" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>232</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="F4" s="34">
+      <c r="C4" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="F4" s="26">
         <v>7</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="H4" s="34" t="s">
+      <c r="G4" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="18" t="s">
         <v>128</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>95</v>
       </c>
       <c r="K4" s="5"/>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="13" t="s">
         <v>111</v>
       </c>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="34" t="s">
-        <v>245</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>267</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="E5" s="22" t="s">
+      <c r="B5" s="26" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="26">
         <v>8</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>242</v>
+      <c r="G5" s="18" t="s">
+        <v>241</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>85</v>
@@ -3102,127 +3019,127 @@
         <v>96</v>
       </c>
       <c r="K5" s="5"/>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="14" t="s">
         <v>112</v>
       </c>
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="34" t="s">
-        <v>246</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="F6" s="34">
+      <c r="B6" s="26" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="26">
         <v>9</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>277</v>
+      <c r="G6" s="18" t="s">
+        <v>276</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>86</v>
       </c>
       <c r="I6" s="5"/>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="K6" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="L6" s="18" t="s">
+      <c r="K6" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="L6" s="14" t="s">
         <v>113</v>
       </c>
       <c r="M6" s="5"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="F7" s="34">
+      <c r="B7" s="26" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" s="26">
         <v>0</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>278</v>
+      <c r="G7" s="18" t="s">
+        <v>277</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>58</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="K7" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="L7" s="18" t="s">
+      <c r="K7" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="L7" s="14" t="s">
         <v>114</v>
       </c>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
-        <v>248</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="F8" s="52" t="s">
+      <c r="B8" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="F8" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>300</v>
+      <c r="G8" s="18" t="s">
+        <v>299</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>87</v>
       </c>
       <c r="I8" s="5"/>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="14" t="s">
         <v>115</v>
       </c>
       <c r="M8" s="5"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="34" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>216</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="B9" s="26" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>164</v>
       </c>
       <c r="G9" s="5"/>
@@ -3234,21 +3151,21 @@
         <v>100</v>
       </c>
       <c r="K9" s="5"/>
-      <c r="L9" s="18"/>
+      <c r="L9" s="14"/>
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>288</v>
+      <c r="B10" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>287</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>77</v>
@@ -3262,29 +3179,29 @@
         <v>101</v>
       </c>
       <c r="K10" s="5"/>
-      <c r="L10" s="36" t="s">
+      <c r="L10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M10" s="22" t="s">
-        <v>237</v>
+      <c r="M10" s="18" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="F11" s="34" t="s">
+      <c r="D11" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="F11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="22" t="s">
-        <v>270</v>
+      <c r="G11" s="18" t="s">
+        <v>269</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>90</v>
@@ -3294,23 +3211,23 @@
         <v>102</v>
       </c>
       <c r="K11" s="5"/>
-      <c r="L11" s="36" t="s">
+      <c r="L11" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="M11" s="22" t="s">
-        <v>238</v>
+      <c r="M11" s="18" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>217</v>
+        <v>250</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>216</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>78</v>
@@ -3324,19 +3241,19 @@
         <v>103</v>
       </c>
       <c r="K12" s="5"/>
-      <c r="L12" s="36" t="s">
+      <c r="L12" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="22" t="s">
-        <v>236</v>
+      <c r="M12" s="18" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>75</v>
       </c>
       <c r="E13" s="5"/>
@@ -3352,23 +3269,23 @@
         <v>104</v>
       </c>
       <c r="K13" s="5"/>
-      <c r="L13" s="36" t="s">
+      <c r="L13" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="22" t="s">
-        <v>239</v>
+      <c r="M13" s="18" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="34">
+        <v>239</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="26">
         <v>1</v>
       </c>
-      <c r="E14" s="22" t="s">
-        <v>218</v>
+      <c r="E14" s="18" t="s">
+        <v>217</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>80</v>
@@ -3381,27 +3298,27 @@
       <c r="J14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="L14" s="18"/>
+      <c r="L14" s="14"/>
       <c r="M14" s="5"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="34">
+        <v>228</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="26">
         <v>2</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="F15" s="34" t="s">
+      <c r="E15" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="F15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="18" t="s">
         <v>199</v>
       </c>
       <c r="H15" s="4" t="s">
@@ -3412,99 +3329,99 @@
         <v>106</v>
       </c>
       <c r="K15" s="5"/>
-      <c r="L15" s="36" t="s">
+      <c r="L15" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="M15" s="22" t="s">
-        <v>223</v>
+      <c r="M15" s="18" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="C16" s="22" t="s">
+      <c r="B16" s="26" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="26">
         <v>3</v>
       </c>
-      <c r="E16" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="F16" s="34" t="s">
+      <c r="E16" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="F16" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="18" t="s">
         <v>21</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="8"/>
+      <c r="I16" s="5"/>
       <c r="J16" s="4" t="s">
         <v>107</v>
       </c>
       <c r="K16" s="5"/>
-      <c r="L16" s="36" t="s">
+      <c r="L16" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="M16" s="22" t="s">
-        <v>224</v>
+      <c r="M16" s="18" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="34">
+      <c r="D17" s="26">
         <v>4</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="F17" s="34" t="s">
+      <c r="E17" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="F17" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="H17" s="34" t="s">
+      <c r="G17" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="H17" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="I17" s="22" t="s">
-        <v>290</v>
+      <c r="I17" s="18" t="s">
+        <v>289</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>108</v>
       </c>
       <c r="K17" s="5"/>
-      <c r="L17" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="M17" s="22" t="s">
+      <c r="L17" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="D18" s="29">
+        <v>5</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="19" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>298</v>
-      </c>
-      <c r="D18" s="37">
-        <v>5</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>260</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>263</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>93</v>
@@ -3513,324 +3430,324 @@
       <c r="J18" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="K18" s="23" t="s">
+      <c r="K18" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="L18" s="27"/>
-      <c r="M18" s="25"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="7"/>
     </row>
     <row r="19" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="C20" s="42"/>
+    </row>
+    <row r="21" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="C20" s="51"/>
-    </row>
-    <row r="21" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="35" t="s">
+      <c r="C21" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C22" s="18" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="34" t="s">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="26" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="26" t="s">
+      <c r="C26" s="18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>282</v>
       </c>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="34" t="s">
-        <v>294</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="C27" s="22" t="s">
+    </row>
+    <row r="28" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="37" t="s">
-        <v>258</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>284</v>
-      </c>
-    </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="38"/>
+      <c r="B29" s="1"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D30" s="24"/>
+      <c r="D30" s="20"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="42"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="15"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="15"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="15"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B35" s="15"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B36" s="15"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B37" s="15"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B38" s="15"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B39" s="15"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B40" s="15"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B41" s="15"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="38"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B42" s="15"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="38"/>
-      <c r="M42" s="38"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B43" s="15"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B44" s="15"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B45" s="15"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B46" s="15"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B47" s="15"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
